--- a/Power BI/Projetos/Report - Oficina Mecânica/Damage data BRA.xlsx
+++ b/Power BI/Projetos/Report - Oficina Mecânica/Damage data BRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victorino Vila\1300 powerbi-analises-intelligentes\Videos\1300 powerbi-analises-intelligentes-Video 2.2 - Problema da oficina mecânica\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsempreboni\OneDrive - UNIVERSO ONLINE S.A\2 - GitHub\Personal\Data-Visualization\Power BI\Projetos\Report - Oficina Mecânica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56CFDB-5668-4030-AAEB-4CE781187AE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D739D-9A11-4799-8213-3F48DE953064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DANO" sheetId="1" r:id="rId1"/>
@@ -1127,18 +1127,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>243</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42370</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42371</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42371</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42372</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42372</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42373</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42374</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42374</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42376</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42376</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42377</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42378</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42378</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42380</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42382</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42383</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42383</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42384</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42385</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42385</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42386</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42387</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42388</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42389</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42389</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42390</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42390</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42390</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42391</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42391</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42392</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42393</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42394</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42394</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42394</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42395</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42395</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42397</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42397</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42399</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42399</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42399</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42402</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>42402</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>42406</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42407</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>42408</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>42408</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42408</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42409</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42410</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42411</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42412</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42413</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42414</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>42417</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42418</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42419</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42420</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42420</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>42421</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>42421</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>42421</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>42423</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>42423</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42424</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42425</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42425</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42426</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42426</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42428</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42428</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>42429</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>42430</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>42432</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>42433</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>42434</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>42434</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>42434</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>42434</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>42434</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>42436</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>42438</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>42438</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42440</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42440</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42441</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42443</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42443</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42445</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42445</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42447</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42448</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42449</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42450</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42451</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42452</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42453</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42454</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42455</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42455</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42455</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42456</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42458</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42459</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42460</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42460</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42461</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>42461</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>42462</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>42462</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>42464</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>42466</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>42466</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>42468</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>42469</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>42469</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>42471</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>42473</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>42473</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42474</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42475</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42476</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42476</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42477</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42477</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42478</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42478</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42479</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42480</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>42480</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>42480</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>42481</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>42483</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>42484</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>42484</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42485</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>42485</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>42485</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>42486</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>42486</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>42487</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>42487</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>42487</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>42488</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>42488</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>42489</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>42489</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>42491</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>42491</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>42491</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>42492</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>42493</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>42493</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>42494</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>42494</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>42494</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>42495</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>42497</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>42498</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>42498</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>42500</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>42501</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>42502</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>42502</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>42502</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>42503</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>42503</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>42504</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>42505</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>42505</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>42505</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>42507</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>42507</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>42509</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>42510</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>42511</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>42511</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>42512</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>42512</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>42512</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>42512</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>42513</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>42513</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>42516</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>42517</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>42518</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>42519</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>42521</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>42521</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>42521</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>42522</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>42522</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>42523</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>42523</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>42525</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>42526</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>42526</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>42526</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>42526</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>42527</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>42527</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>42528</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>42530</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>42531</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>42531</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>42531</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>42533</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>42534</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>42534</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>42536</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>42536</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>42537</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>42538</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>42539</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>42540</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>42540</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>42541</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>42542</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>42543</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>42544</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>42544</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>42544</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>42546</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>42546</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>42546</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>42546</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>42547</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>42548</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>42549</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>42549</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>42550</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>42551</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>42551</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>42552</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>42553</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>42556</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>42556</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>42557</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>42558</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>42558</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>42559</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>42559</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>42560</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>42564</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>42565</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>42565</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>42567</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>42568</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>42568</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>42569</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>42569</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>42570</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>42571</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>42573</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>42573</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>42573</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>42574</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>42575</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>42577</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>42577</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>42578</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>42578</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>42579</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>42580</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>42581</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>42581</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>42584</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>42584</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>42585</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>42585</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>42586</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>42586</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>42587</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>42587</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>42589</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>42590</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>42593</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>42593</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>42593</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>42594</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>42594</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>42594</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>42594</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>42595</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>42597</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>42598</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>42599</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>42599</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>42600</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>42602</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>42602</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>42602</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>42603</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>42603</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>42606</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>42606</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>42606</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>42606</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>42607</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>42608</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>42609</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>42610</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>42610</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>42610</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>42611</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>42613</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>42614</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>42614</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>42616</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>42618</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>42618</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>42619</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>42619</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>42620</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>42620</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>42622</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>42622</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>42622</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>42622</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>42623</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>42623</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>42624</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>42626</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>42626</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>42628</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>42628</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>42630</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>42630</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>42631</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>42631</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>42632</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>42632</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>42633</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>42634</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>42635</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>42637</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>42637</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>42637</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>42638</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>42641</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>42642</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>42644</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>42644</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>42645</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>42645</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>42645</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>42646</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>42646</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>42647</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>42647</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>42647</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>42649</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>42649</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>42649</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>42650</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>42652</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>42653</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>42654</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>42654</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>42654</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>42654</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>42655</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>42656</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>42656</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>42657</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>42658</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>42659</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>42659</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>42660</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>42663</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>42664</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>42665</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>42665</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>42667</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>42667</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>42668</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>42670</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>42670</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>42671</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>42672</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>42672</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>42673</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>42673</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>42674</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>42674</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>42674</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>42674</v>
       </c>
@@ -5430,17 +5430,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>207</v>
       </c>
       <c r="C13">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
         <v>250</v>
@@ -5661,7 +5661,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>141</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>207</v>
       </c>
       <c r="C57">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
         <v>253</v>
@@ -6409,7 +6409,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>195</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>207</v>
       </c>
       <c r="C70">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
         <v>249</v>
@@ -6630,7 +6630,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>163</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>207</v>
       </c>
       <c r="C76">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
         <v>249</v>
@@ -6732,7 +6732,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>207</v>
       </c>
       <c r="C90">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
         <v>249</v>
@@ -6970,7 +6970,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>76</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>68</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>129</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>207</v>
       </c>
       <c r="C104">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
         <v>252</v>
@@ -7208,7 +7208,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>75</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>207</v>
       </c>
       <c r="C109">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D109" t="s">
         <v>252</v>
@@ -7293,7 +7293,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>80</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>178</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>89</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>159</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>33</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>193</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>207</v>
       </c>
       <c r="C127">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
         <v>252</v>
@@ -7599,7 +7599,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>101</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>207</v>
       </c>
       <c r="C130">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
         <v>252</v>
@@ -7650,7 +7650,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>207</v>
       </c>
       <c r="C131">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D131" t="s">
         <v>252</v>
@@ -7667,7 +7667,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>57</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>207</v>
       </c>
       <c r="C133">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D133" t="s">
         <v>252</v>
@@ -7701,7 +7701,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>177</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>207</v>
       </c>
       <c r="C139">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
         <v>248</v>
@@ -7803,7 +7803,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>92</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>207</v>
       </c>
       <c r="C142">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s">
         <v>248</v>
@@ -7854,7 +7854,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>48</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>86</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>198</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>207</v>
       </c>
       <c r="C152">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
         <v>248</v>
@@ -8024,7 +8024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>207</v>
       </c>
       <c r="C156">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D156" t="s">
         <v>248</v>
@@ -8092,7 +8092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>107</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>113</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>84</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>50</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>82</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>64</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>100</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>207</v>
       </c>
       <c r="C177">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D177" t="s">
         <v>251</v>
@@ -8449,7 +8449,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>199</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>73</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>207</v>
       </c>
       <c r="C179">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D179" t="s">
         <v>251</v>
@@ -8483,7 +8483,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>171</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>175</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>74</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>142</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>125</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>157</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>146</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>185</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>136</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>112</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>207</v>
       </c>
       <c r="C199">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D199" t="s">
         <v>251</v>
@@ -8823,7 +8823,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>44</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>207</v>
       </c>
       <c r="C201">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D201" t="s">
         <v>251</v>
@@ -8857,7 +8857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>172</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>65</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>2008</v>
+        <v>208</v>
       </c>
       <c r="D204" t="s">
         <v>251</v>
@@ -8908,7 +8908,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>87</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>152</v>
       </c>
